--- a/datasets/D&D 5E Spells.xlsx
+++ b/datasets/D&D 5E Spells.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="1503">
   <si>
     <t>name</t>
   </si>
@@ -1553,9 +1553,6 @@
   </si>
   <si>
     <t>A glass or crystal bead that shatters when the spell ends</t>
-  </si>
-  <si>
-    <t>Sel (10-foot radius)</t>
   </si>
   <si>
     <t>An immobile, faintly shimmering barrier springs into existence in a 10-foot radius around you and remains for the duration. Any spell of 5th level or lower cast from outside the barrier can't affect creatures or objects within it, even if the spell is cast using a higher level spell slot. Such a spell can target creatures and objects within the barrier, but the spell has no effect on them. Similarly, the area within the barrier is excluded from the areas affected by such spells. At Higher Levels. When you cast this spell using a spell slot of 7th level or higher, the barrier blocks spells of one level higher for each slot level above 6th.</t>
@@ -11561,13 +11558,13 @@
         <v>58</v>
       </c>
       <c r="J159" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K159" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="K159" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>515</v>
       </c>
       <c r="M159" s="3" t="s">
         <v>172</v>
@@ -11578,7 +11575,7 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B160" s="3">
         <v>3.0</v>
@@ -11593,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>71</v>
@@ -11602,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J160" s="3" t="s">
         <v>88</v>
@@ -11611,10 +11608,10 @@
         <v>0</v>
       </c>
       <c r="L160" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="M160" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="M160" s="3" t="s">
-        <v>520</v>
       </c>
       <c r="N160" s="3" t="s">
         <v>21</v>
@@ -11622,7 +11619,7 @@
     </row>
     <row r="161">
       <c r="A161" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B161" s="3">
         <v>1.0</v>
@@ -11637,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>16</v>
@@ -11655,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M161" s="3" t="s">
         <v>132</v>
@@ -11666,7 +11663,7 @@
     </row>
     <row r="162">
       <c r="A162" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B162" s="3">
         <v>4.0</v>
@@ -11696,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M162" s="3" t="s">
         <v>132</v>
@@ -11707,7 +11704,7 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B163" s="3">
         <v>1.0</v>
@@ -11722,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>16</v>
@@ -11740,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M163" s="3" t="s">
         <v>79</v>
@@ -11751,7 +11748,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B164" s="4">
         <v>4.0</v>
@@ -11782,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M164" s="3" t="s">
         <v>338</v>
@@ -11793,7 +11790,7 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B165" s="3">
         <v>5.0</v>
@@ -11808,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>16</v>
@@ -11826,10 +11823,10 @@
         <v>0</v>
       </c>
       <c r="L165" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="M165" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="M165" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="N165" s="3" t="s">
         <v>21</v>
@@ -11837,7 +11834,7 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B166" s="3">
         <v>4.0</v>
@@ -11867,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M166" s="3" t="s">
         <v>104</v>
@@ -11878,7 +11875,7 @@
     </row>
     <row r="167">
       <c r="A167" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B167" s="3">
         <v>6.0</v>
@@ -11893,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>197</v>
@@ -11911,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="L167" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="M167" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="M167" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="N167" s="3" t="s">
         <v>21</v>
@@ -11922,7 +11919,7 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B168" s="3">
         <v>0.0</v>
@@ -11952,10 +11949,10 @@
         <v>0</v>
       </c>
       <c r="L168" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="M168" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="M168" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="N168" s="3" t="s">
         <v>21</v>
@@ -11963,7 +11960,7 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B169" s="3">
         <v>1.0</v>
@@ -11993,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M169" s="3" t="s">
         <v>104</v>
@@ -12004,7 +12001,7 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B170" s="3">
         <v>2.0</v>
@@ -12019,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>16</v>
@@ -12031,16 +12028,16 @@
         <v>58</v>
       </c>
       <c r="J170" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="K170" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="K170" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="3" t="s">
+      <c r="M170" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="M170" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="N170" s="3" t="s">
         <v>21</v>
@@ -12048,7 +12045,7 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B171" s="3">
         <v>1.0</v>
@@ -12078,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M171" s="3" t="s">
         <v>239</v>
@@ -12089,7 +12086,7 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B172" s="3">
         <v>5.0</v>
@@ -12104,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>42</v>
@@ -12122,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M172" s="3" t="s">
         <v>104</v>
@@ -12133,7 +12130,7 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B173" s="3">
         <v>4.0</v>
@@ -12148,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>197</v>
@@ -12166,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M173" s="3" t="s">
         <v>429</v>
@@ -12177,7 +12174,7 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B174" s="3">
         <v>6.0</v>
@@ -12207,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M174" s="3" t="s">
         <v>104</v>
@@ -12218,7 +12215,7 @@
     </row>
     <row r="175">
       <c r="A175" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B175" s="3">
         <v>3.0</v>
@@ -12233,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>16</v>
@@ -12251,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M175" s="3" t="s">
         <v>20</v>
@@ -12262,7 +12259,7 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B176" s="3">
         <v>6.0</v>
@@ -12292,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M176" s="3" t="s">
         <v>261</v>
@@ -12303,7 +12300,7 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B177" s="3">
         <v>1.0</v>
@@ -12333,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M177" s="3" t="s">
         <v>443</v>
@@ -12344,7 +12341,7 @@
     </row>
     <row r="178">
       <c r="A178" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B178" s="3">
         <v>2.0</v>
@@ -12359,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>16</v>
@@ -12377,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M178" s="3" t="s">
         <v>414</v>
@@ -12388,7 +12385,7 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B179" s="3">
         <v>1.0</v>
@@ -12403,7 +12400,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H179" s="3" t="b">
         <v>0</v>
@@ -12418,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M179" s="3" t="s">
         <v>93</v>
@@ -12429,7 +12426,7 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B180" s="3">
         <v>6.0</v>
@@ -12444,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>197</v>
@@ -12462,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M180" s="3" t="s">
         <v>261</v>
@@ -12473,7 +12470,7 @@
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B181" s="3">
         <v>1.0</v>
@@ -12503,10 +12500,10 @@
         <v>0</v>
       </c>
       <c r="L181" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="M181" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="M181" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="N181" s="3" t="s">
         <v>21</v>
@@ -12514,7 +12511,7 @@
     </row>
     <row r="182">
       <c r="A182" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B182" s="3">
         <v>1.0</v>
@@ -12529,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>123</v>
@@ -12547,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M182" s="3" t="s">
         <v>93</v>
@@ -12558,7 +12555,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B183" s="4">
         <v>5.0</v>
@@ -12573,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>16</v>
@@ -12591,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M183" s="3" t="s">
         <v>149</v>
@@ -12602,7 +12599,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B184" s="4">
         <v>2.0</v>
@@ -12617,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>16</v>
@@ -12635,10 +12632,10 @@
         <v>0</v>
       </c>
       <c r="L184" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="M184" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="M184" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="N184" s="3" t="s">
         <v>21</v>
@@ -12646,7 +12643,7 @@
     </row>
     <row r="185">
       <c r="A185" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B185" s="3">
         <v>8.0</v>
@@ -12661,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>16</v>
@@ -12679,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M185" s="3" t="s">
         <v>104</v>
@@ -12690,7 +12687,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B186" s="4">
         <v>3.0</v>
@@ -12705,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>16</v>
@@ -12723,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M186" s="3" t="s">
         <v>93</v>
@@ -12734,7 +12731,7 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B187" s="3">
         <v>1.0</v>
@@ -12764,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M187" s="3" t="s">
         <v>239</v>
@@ -12775,7 +12772,7 @@
     </row>
     <row r="188">
       <c r="A188" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B188" s="3">
         <v>3.0</v>
@@ -12790,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>16</v>
@@ -12808,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M188" s="3" t="s">
         <v>149</v>
@@ -12819,7 +12816,7 @@
     </row>
     <row r="189">
       <c r="A189" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B189" s="3">
         <v>4.0</v>
@@ -12834,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>16</v>
@@ -12852,10 +12849,10 @@
         <v>0</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N189" s="3" t="s">
         <v>21</v>
@@ -12863,7 +12860,7 @@
     </row>
     <row r="190">
       <c r="A190" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B190" s="3">
         <v>1.0</v>
@@ -12878,7 +12875,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>31</v>
@@ -12896,10 +12893,10 @@
         <v>1</v>
       </c>
       <c r="L190" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="M190" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>606</v>
       </c>
       <c r="N190" s="3" t="s">
         <v>21</v>
@@ -12907,7 +12904,7 @@
     </row>
     <row r="191">
       <c r="A191" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B191" s="3">
         <v>1.0</v>
@@ -12922,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>31</v>
@@ -12940,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M191" s="3" t="s">
         <v>373</v>
@@ -12951,7 +12948,7 @@
     </row>
     <row r="192">
       <c r="A192" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B192" s="3">
         <v>9.0</v>
@@ -12966,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>31</v>
@@ -12984,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M192" s="3" t="s">
         <v>257</v>
@@ -12995,7 +12992,7 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B193" s="3">
         <v>8.0</v>
@@ -13025,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M193" s="3" t="s">
         <v>172</v>
@@ -13036,7 +13033,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B194" s="4">
         <v>1.0</v>
@@ -13067,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M194" s="3" t="s">
         <v>104</v>
@@ -13078,7 +13075,7 @@
     </row>
     <row r="195">
       <c r="A195" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B195" s="3">
         <v>5.0</v>
@@ -13093,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>16</v>
@@ -13111,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M195" s="3" t="s">
         <v>379</v>
@@ -13122,7 +13119,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B196" s="4">
         <v>2.0</v>
@@ -13137,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>16</v>
@@ -13155,10 +13152,10 @@
         <v>0</v>
       </c>
       <c r="L196" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="M196" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="M196" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>21</v>
@@ -13166,7 +13163,7 @@
     </row>
     <row r="197">
       <c r="A197" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B197" s="3">
         <v>1.0</v>
@@ -13181,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>16</v>
@@ -13199,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M197" s="3" t="s">
         <v>313</v>
@@ -13210,7 +13207,7 @@
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B198" s="3">
         <v>2.0</v>
@@ -13240,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M198" s="3" t="s">
         <v>338</v>
@@ -13251,7 +13248,7 @@
     </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B199" s="3">
         <v>5.0</v>
@@ -13266,7 +13263,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>197</v>
@@ -13284,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M199" s="3" t="s">
         <v>139</v>
@@ -13295,7 +13292,7 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B200" s="3">
         <v>4.0</v>
@@ -13310,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>16</v>
@@ -13328,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M200" s="3" t="s">
         <v>79</v>
@@ -13339,7 +13336,7 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B201" s="3">
         <v>3.0</v>
@@ -13354,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>31</v>
@@ -13366,16 +13363,16 @@
         <v>25</v>
       </c>
       <c r="J201" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K201" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="K201" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="M201" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N201" s="3" t="s">
         <v>21</v>
@@ -13383,7 +13380,7 @@
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B202" s="3">
         <v>2.0</v>
@@ -13413,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M202" s="3" t="s">
         <v>303</v>
@@ -13424,7 +13421,7 @@
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B203" s="3">
         <v>2.0</v>
@@ -13439,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>16</v>
@@ -13457,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M203" s="3" t="s">
         <v>20</v>
@@ -13468,7 +13465,7 @@
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B204" s="3">
         <v>0.0</v>
@@ -13483,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>16</v>
@@ -13501,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="L204" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="M204" s="3" t="s">
         <v>646</v>
-      </c>
-      <c r="M204" s="3" t="s">
-        <v>647</v>
       </c>
       <c r="N204" s="3" t="s">
         <v>21</v>
@@ -13512,7 +13509,7 @@
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B205" s="3">
         <v>3.0</v>
@@ -13542,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M205" s="3" t="s">
         <v>239</v>
@@ -13553,7 +13550,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B206" s="4">
         <v>3.0</v>
@@ -13568,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>16</v>
@@ -13580,13 +13577,13 @@
         <v>17</v>
       </c>
       <c r="J206" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="K206" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="K206" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="M206" s="3" t="s">
         <v>172</v>
@@ -13597,7 +13594,7 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B207" s="3">
         <v>2.0</v>
@@ -13612,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>16</v>
@@ -13630,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M207" s="3" t="s">
         <v>44</v>
@@ -13641,7 +13638,7 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B208" s="3">
         <v>4.0</v>
@@ -13656,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>16</v>
@@ -13674,10 +13671,10 @@
         <v>0</v>
       </c>
       <c r="L208" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="M208" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="M208" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="N208" s="3" t="s">
         <v>21</v>
@@ -13685,7 +13682,7 @@
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B209" s="3">
         <v>2.0</v>
@@ -13700,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>16</v>
@@ -13718,10 +13715,10 @@
         <v>0</v>
       </c>
       <c r="L209" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="M209" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="M209" s="3" t="s">
-        <v>663</v>
       </c>
       <c r="N209" s="3" t="s">
         <v>21</v>
@@ -13729,7 +13726,7 @@
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B210" s="3">
         <v>1.0</v>
@@ -13744,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>16</v>
@@ -13762,10 +13759,10 @@
         <v>0</v>
       </c>
       <c r="L210" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="M210" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="M210" s="3" t="s">
-        <v>667</v>
       </c>
       <c r="N210" s="3" t="s">
         <v>21</v>
@@ -13773,7 +13770,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B211" s="4">
         <v>1.0</v>
@@ -13788,7 +13785,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>16</v>
@@ -13806,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M211" s="3" t="s">
         <v>172</v>
@@ -13817,7 +13814,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B212" s="4">
         <v>0.0</v>
@@ -13848,10 +13845,10 @@
         <v>0</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N212" s="3" t="s">
         <v>21</v>
@@ -13859,7 +13856,7 @@
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B213" s="3">
         <v>3.0</v>
@@ -13874,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>31</v>
@@ -13892,10 +13889,10 @@
         <v>0</v>
       </c>
       <c r="L213" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="M213" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="M213" s="3" t="s">
-        <v>676</v>
       </c>
       <c r="N213" s="3" t="s">
         <v>21</v>
@@ -13903,7 +13900,7 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B214" s="3">
         <v>6.0</v>
@@ -13918,7 +13915,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>31</v>
@@ -13936,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M214" s="3" t="s">
         <v>203</v>
@@ -13947,7 +13944,7 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B215" s="3">
         <v>1.0</v>
@@ -13977,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M215" s="3" t="s">
         <v>172</v>
@@ -13988,7 +13985,7 @@
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B216" s="3">
         <v>2.0</v>
@@ -14003,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>31</v>
@@ -14021,10 +14018,10 @@
         <v>1</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N216" s="3" t="s">
         <v>21</v>
@@ -14032,7 +14029,7 @@
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B217" s="3">
         <v>2.0</v>
@@ -14062,10 +14059,10 @@
         <v>0</v>
       </c>
       <c r="L217" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="M217" s="3" t="s">
         <v>686</v>
-      </c>
-      <c r="M217" s="3" t="s">
-        <v>687</v>
       </c>
       <c r="N217" s="3" t="s">
         <v>21</v>
@@ -14073,7 +14070,7 @@
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B218" s="3">
         <v>3.0</v>
@@ -14088,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>16</v>
@@ -14106,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M218" s="3" t="s">
         <v>149</v>
@@ -14117,7 +14114,7 @@
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B219" s="3">
         <v>5.0</v>
@@ -14147,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M219" s="3" t="s">
         <v>443</v>
@@ -14158,7 +14155,7 @@
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B220" s="3">
         <v>9.0</v>
@@ -14188,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M220" s="3" t="s">
         <v>104</v>
@@ -14199,7 +14196,7 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B221" s="3">
         <v>3.0</v>
@@ -14229,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M221" s="3" t="s">
         <v>104</v>
@@ -14240,7 +14237,7 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B222" s="3">
         <v>6.0</v>
@@ -14255,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>16</v>
@@ -14273,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M222" s="3" t="s">
         <v>149</v>
@@ -14284,7 +14281,7 @@
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B223" s="3">
         <v>8.0</v>
@@ -14314,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M223" s="3" t="s">
         <v>203</v>
@@ -14325,7 +14322,7 @@
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B224" s="3">
         <v>3.0</v>
@@ -14355,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M224" s="3" t="s">
         <v>261</v>
@@ -14366,7 +14363,7 @@
     </row>
     <row r="225">
       <c r="A225" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B225" s="3">
         <v>2.0</v>
@@ -14381,7 +14378,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>16</v>
@@ -14399,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M225" s="3" t="s">
         <v>203</v>
@@ -14410,7 +14407,7 @@
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B226" s="3">
         <v>0.0</v>
@@ -14425,7 +14422,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>31</v>
@@ -14443,10 +14440,10 @@
         <v>0</v>
       </c>
       <c r="L226" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="M226" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="M226" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="N226" s="3" t="s">
         <v>21</v>
@@ -14454,7 +14451,7 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B227" s="3">
         <v>0.0</v>
@@ -14469,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>16</v>
@@ -14487,7 +14484,7 @@
         <v>0</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M227" s="3" t="s">
         <v>61</v>
@@ -14498,7 +14495,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B228" s="4">
         <v>9.0</v>
@@ -14529,7 +14526,7 @@
         <v>0</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M228" s="3" t="s">
         <v>172</v>
@@ -14540,7 +14537,7 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B229" s="3">
         <v>8.0</v>
@@ -14570,10 +14567,10 @@
         <v>0</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N229" s="3" t="s">
         <v>21</v>
@@ -14581,7 +14578,7 @@
     </row>
     <row r="230">
       <c r="A230" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B230" s="3">
         <v>0.0</v>
@@ -14596,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G230" s="3" t="s">
         <v>16</v>
@@ -14614,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M230" s="3" t="s">
         <v>149</v>
@@ -14625,7 +14622,7 @@
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B231" s="3">
         <v>7.0</v>
@@ -14649,16 +14646,16 @@
         <v>72</v>
       </c>
       <c r="J231" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="K231" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="K231" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="3" t="s">
+      <c r="M231" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="M231" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="N231" s="3" t="s">
         <v>21</v>
@@ -14666,7 +14663,7 @@
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B232" s="3">
         <v>2.0</v>
@@ -14696,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M232" s="3" t="s">
         <v>84</v>
@@ -14707,7 +14704,7 @@
     </row>
     <row r="233">
       <c r="A233" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B233" s="3">
         <v>5.0</v>
@@ -14737,10 +14734,10 @@
         <v>0</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N233" s="3" t="s">
         <v>21</v>
@@ -14748,7 +14745,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B234" s="4">
         <v>2.0</v>
@@ -14779,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M234" s="3" t="s">
         <v>84</v>
@@ -14790,7 +14787,7 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B235" s="3">
         <v>5.0</v>
@@ -14820,10 +14817,10 @@
         <v>0</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N235" s="3" t="s">
         <v>21</v>
@@ -14831,7 +14828,7 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B236" s="3">
         <v>2.0</v>
@@ -14846,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G236" s="3" t="s">
         <v>16</v>
@@ -14864,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M236" s="3" t="s">
         <v>50</v>
@@ -14875,7 +14872,7 @@
     </row>
     <row r="237">
       <c r="A237" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B237" s="3">
         <v>4.0</v>
@@ -14890,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G237" s="3" t="s">
         <v>16</v>
@@ -14908,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M237" s="3" t="s">
         <v>79</v>
@@ -14919,7 +14916,7 @@
     </row>
     <row r="238">
       <c r="A238" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B238" s="3">
         <v>7.0</v>
@@ -14934,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>31</v>
@@ -14952,10 +14949,10 @@
         <v>0</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N238" s="3" t="s">
         <v>21</v>
@@ -14963,7 +14960,7 @@
     </row>
     <row r="239">
       <c r="A239" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B239" s="3">
         <v>4.0</v>
@@ -14978,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>197</v>
@@ -14996,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M239" s="3" t="s">
         <v>79</v>
@@ -15007,7 +15004,7 @@
     </row>
     <row r="240">
       <c r="A240" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B240" s="3">
         <v>7.0</v>
@@ -15022,7 +15019,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G240" s="3" t="s">
         <v>16</v>
@@ -15040,10 +15037,10 @@
         <v>0</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N240" s="3" t="s">
         <v>21</v>
@@ -15051,7 +15048,7 @@
     </row>
     <row r="241">
       <c r="A241" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B241" s="3">
         <v>6.0</v>
@@ -15066,16 +15063,16 @@
         <v>1</v>
       </c>
       <c r="F241" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I241" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H241" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="J241" s="3" t="s">
         <v>59</v>
@@ -15084,10 +15081,10 @@
         <v>0</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N241" s="3" t="s">
         <v>21</v>
@@ -15095,7 +15092,7 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B242" s="3">
         <v>3.0</v>
@@ -15110,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>16</v>
@@ -15128,10 +15125,10 @@
         <v>0</v>
       </c>
       <c r="L242" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="M242" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="M242" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="N242" s="3" t="s">
         <v>21</v>
@@ -15139,7 +15136,7 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B243" s="3">
         <v>2.0</v>
@@ -15154,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G243" s="3" t="s">
         <v>16</v>
@@ -15172,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M243" s="3" t="s">
         <v>203</v>
@@ -15183,7 +15180,7 @@
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B244" s="3">
         <v>6.0</v>
@@ -15198,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G244" s="3" t="s">
         <v>16</v>
@@ -15216,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M244" s="3" t="s">
         <v>203</v>
@@ -15227,7 +15224,7 @@
     </row>
     <row r="245">
       <c r="A245" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B245" s="3">
         <v>4.0</v>
@@ -15242,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G245" s="3" t="s">
         <v>16</v>
@@ -15260,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M245" s="3" t="s">
         <v>79</v>
@@ -15271,7 +15268,7 @@
     </row>
     <row r="246">
       <c r="A246" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B246" s="3">
         <v>6.0</v>
@@ -15301,10 +15298,10 @@
         <v>0</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N246" s="3" t="s">
         <v>21</v>
@@ -15312,7 +15309,7 @@
     </row>
     <row r="247">
       <c r="A247" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B247" s="3">
         <v>2.0</v>
@@ -15327,7 +15324,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>16</v>
@@ -15345,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M247" s="3" t="s">
         <v>132</v>
@@ -15356,7 +15353,7 @@
     </row>
     <row r="248">
       <c r="A248" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B248" s="3">
         <v>5.0</v>
@@ -15371,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G248" s="3" t="s">
         <v>16</v>
@@ -15389,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M248" s="3" t="s">
         <v>203</v>
@@ -15400,7 +15397,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B249" s="4">
         <v>2.0</v>
@@ -15415,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>16</v>
@@ -15433,7 +15430,7 @@
         <v>0</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M249" s="3" t="s">
         <v>338</v>
@@ -15444,7 +15441,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B250" s="4">
         <v>4.0</v>
@@ -15475,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M250" s="3" t="s">
         <v>203</v>
@@ -15486,7 +15483,7 @@
     </row>
     <row r="251">
       <c r="A251" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B251" s="3">
         <v>3.0</v>
@@ -15516,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M251" s="3" t="s">
         <v>203</v>
@@ -15527,7 +15524,7 @@
     </row>
     <row r="252">
       <c r="A252" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B252" s="3">
         <v>6.0</v>
@@ -15557,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M252" s="3" t="s">
         <v>104</v>
@@ -15568,7 +15565,7 @@
     </row>
     <row r="253">
       <c r="A253" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B253" s="3">
         <v>5.0</v>
@@ -15583,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>71</v>
@@ -15601,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M253" s="3" t="s">
         <v>433</v>
@@ -15612,7 +15609,7 @@
     </row>
     <row r="254">
       <c r="A254" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B254" s="3">
         <v>7.0</v>
@@ -15627,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>16</v>
@@ -15645,10 +15642,10 @@
         <v>0</v>
       </c>
       <c r="L254" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="M254" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="M254" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="N254" s="3" t="s">
         <v>21</v>
@@ -15656,7 +15653,7 @@
     </row>
     <row r="255">
       <c r="A255" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B255" s="3">
         <v>3.0</v>
@@ -15671,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H255" s="3" t="b">
         <v>0</v>
@@ -15686,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M255" s="3" t="s">
         <v>44</v>
@@ -15697,7 +15694,7 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B256" s="3">
         <v>0.0</v>
@@ -15727,10 +15724,10 @@
         <v>0</v>
       </c>
       <c r="L256" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="M256" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="M256" s="3" t="s">
-        <v>792</v>
       </c>
       <c r="N256" s="3" t="s">
         <v>21</v>
@@ -15738,7 +15735,7 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B257" s="3">
         <v>4.0</v>
@@ -15753,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G257" s="3" t="s">
         <v>16</v>
@@ -15771,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M257" s="3" t="s">
         <v>233</v>
@@ -15782,7 +15779,7 @@
     </row>
     <row r="258">
       <c r="A258" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B258" s="3">
         <v>9.0</v>
@@ -15812,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M258" s="3" t="s">
         <v>177</v>
@@ -15823,7 +15820,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B259" s="4">
         <v>9.0</v>
@@ -15854,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M259" s="3" t="s">
         <v>149</v>
@@ -15865,7 +15862,7 @@
     </row>
     <row r="260">
       <c r="A260" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B260" s="3">
         <v>8.0</v>
@@ -15895,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M260" s="3" t="s">
         <v>149</v>
@@ -15906,7 +15903,7 @@
     </row>
     <row r="261">
       <c r="A261" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B261" s="3">
         <v>2.0</v>
@@ -15936,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M261" s="3" t="s">
         <v>104</v>
@@ -15947,7 +15944,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B262" s="4">
         <v>0.0</v>
@@ -15978,10 +15975,10 @@
         <v>0</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N262" s="3" t="s">
         <v>21</v>
@@ -15989,7 +15986,7 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B263" s="3">
         <v>7.0</v>
@@ -16019,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M263" s="3" t="s">
         <v>172</v>
@@ -16030,7 +16027,7 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B264" s="3">
         <v>9.0</v>
@@ -16060,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M264" s="3" t="s">
         <v>203</v>
@@ -16071,7 +16068,7 @@
     </row>
     <row r="265">
       <c r="A265" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B265" s="3">
         <v>0.0</v>
@@ -16101,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M265" s="3" t="s">
         <v>50</v>
@@ -16112,7 +16109,7 @@
     </row>
     <row r="266">
       <c r="A266" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B266" s="3">
         <v>6.0</v>
@@ -16127,7 +16124,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G266" s="3" t="s">
         <v>16</v>
@@ -16145,10 +16142,10 @@
         <v>0</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N266" s="3" t="s">
         <v>21</v>
@@ -16156,7 +16153,7 @@
     </row>
     <row r="267">
       <c r="A267" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B267" s="3">
         <v>7.0</v>
@@ -16171,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>16</v>
@@ -16183,16 +16180,16 @@
         <v>441</v>
       </c>
       <c r="J267" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K267" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="K267" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="3" t="s">
-        <v>818</v>
-      </c>
       <c r="M267" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N267" s="3" t="s">
         <v>21</v>
@@ -16200,7 +16197,7 @@
     </row>
     <row r="268">
       <c r="A268" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B268" s="3">
         <v>3.0</v>
@@ -16230,10 +16227,10 @@
         <v>0</v>
       </c>
       <c r="L268" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="M268" s="3" t="s">
         <v>820</v>
-      </c>
-      <c r="M268" s="3" t="s">
-        <v>821</v>
       </c>
       <c r="N268" s="3" t="s">
         <v>21</v>
@@ -16241,7 +16238,7 @@
     </row>
     <row r="269">
       <c r="A269" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B269" s="3">
         <v>1.0</v>
@@ -16256,7 +16253,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G269" s="3" t="s">
         <v>16</v>
@@ -16274,10 +16271,10 @@
         <v>0</v>
       </c>
       <c r="L269" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="M269" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="M269" s="3" t="s">
-        <v>825</v>
       </c>
       <c r="N269" s="3" t="s">
         <v>21</v>
@@ -16285,7 +16282,7 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B270" s="3">
         <v>2.0</v>
@@ -16315,10 +16312,10 @@
         <v>0</v>
       </c>
       <c r="L270" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M270" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="M270" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="N270" s="3" t="s">
         <v>21</v>
@@ -16326,7 +16323,7 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B271" s="3">
         <v>1.0</v>
@@ -16356,10 +16353,10 @@
         <v>1</v>
       </c>
       <c r="L271" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="M271" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="M271" s="3" t="s">
-        <v>831</v>
       </c>
       <c r="N271" s="3" t="s">
         <v>21</v>
@@ -16367,7 +16364,7 @@
     </row>
     <row r="272">
       <c r="A272" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B272" s="3">
         <v>5.0</v>
@@ -16382,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G272" s="3" t="s">
         <v>71</v>
@@ -16400,10 +16397,10 @@
         <v>0</v>
       </c>
       <c r="L272" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="M272" s="3" t="s">
         <v>834</v>
-      </c>
-      <c r="M272" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="N272" s="3" t="s">
         <v>21</v>
@@ -16411,7 +16408,7 @@
     </row>
     <row r="273">
       <c r="A273" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B273" s="3">
         <v>5.0</v>
@@ -16426,7 +16423,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G273" s="3" t="s">
         <v>16</v>
@@ -16444,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M273" s="3" t="s">
         <v>203</v>
@@ -16455,7 +16452,7 @@
     </row>
     <row r="274">
       <c r="A274" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B274" s="3">
         <v>2.0</v>
@@ -16485,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M274" s="3" t="s">
         <v>257</v>
@@ -16496,7 +16493,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B275" s="4">
         <v>0.0</v>
@@ -16527,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M275" s="3" t="s">
         <v>20</v>
@@ -16538,7 +16535,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B276" s="4">
         <v>1.0</v>
@@ -16569,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M276" s="3" t="s">
         <v>172</v>
@@ -16580,7 +16577,7 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B277" s="3">
         <v>7.0</v>
@@ -16595,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G277" s="3" t="s">
         <v>31</v>
@@ -16613,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M277" s="3" t="s">
         <v>443</v>
@@ -16624,7 +16621,7 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B278" s="3">
         <v>5.0</v>
@@ -16639,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G278" s="3" t="s">
         <v>71</v>
@@ -16657,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M278" s="3" t="s">
         <v>50</v>
@@ -16668,7 +16665,7 @@
     </row>
     <row r="279">
       <c r="A279" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B279" s="3">
         <v>3.0</v>
@@ -16698,10 +16695,10 @@
         <v>0</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N279" s="3" t="s">
         <v>21</v>
@@ -16709,7 +16706,7 @@
     </row>
     <row r="280">
       <c r="A280" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B280" s="3">
         <v>0.0</v>
@@ -16724,7 +16721,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G280" s="3" t="s">
         <v>16</v>
@@ -16742,10 +16739,10 @@
         <v>0</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N280" s="3" t="s">
         <v>21</v>
@@ -16753,7 +16750,7 @@
     </row>
     <row r="281">
       <c r="A281" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B281" s="3">
         <v>7.0</v>
@@ -16768,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G281" s="3" t="s">
         <v>71</v>
@@ -16786,7 +16783,7 @@
         <v>0</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M281" s="3" t="s">
         <v>121</v>
@@ -16797,7 +16794,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B282" s="4">
         <v>7.0</v>
@@ -16812,7 +16809,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>16</v>
@@ -16830,10 +16827,10 @@
         <v>0</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N282" s="3" t="s">
         <v>21</v>
@@ -16841,7 +16838,7 @@
     </row>
     <row r="283">
       <c r="A283" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B283" s="3">
         <v>3.0</v>
@@ -16856,7 +16853,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>16</v>
@@ -16874,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M283" s="3" t="s">
         <v>28</v>
@@ -16885,7 +16882,7 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B284" s="3">
         <v>2.0</v>
@@ -16900,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>16</v>
@@ -16918,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M284" s="3" t="s">
         <v>79</v>
@@ -16929,7 +16926,7 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B285" s="3">
         <v>0.0</v>
@@ -16959,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M285" s="3" t="s">
         <v>104</v>
@@ -16970,7 +16967,7 @@
     </row>
     <row r="286">
       <c r="A286" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B286" s="3">
         <v>1.0</v>
@@ -16985,7 +16982,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G286" s="3" t="s">
         <v>123</v>
@@ -17003,10 +17000,10 @@
         <v>0</v>
       </c>
       <c r="L286" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="M286" s="3" t="s">
         <v>872</v>
-      </c>
-      <c r="M286" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="N286" s="3" t="s">
         <v>21</v>
@@ -17014,7 +17011,7 @@
     </row>
     <row r="287">
       <c r="A287" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B287" s="3">
         <v>2.0</v>
@@ -17044,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M287" s="3" t="s">
         <v>172</v>
@@ -17055,7 +17052,7 @@
     </row>
     <row r="288">
       <c r="A288" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B288" s="3">
         <v>5.0</v>
@@ -17070,7 +17067,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G288" s="3" t="s">
         <v>197</v>
@@ -17088,10 +17085,10 @@
         <v>0</v>
       </c>
       <c r="L288" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="M288" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="M288" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="N288" s="3" t="s">
         <v>21</v>
@@ -17099,7 +17096,7 @@
     </row>
     <row r="289">
       <c r="A289" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B289" s="3">
         <v>1.0</v>
@@ -17129,7 +17126,7 @@
         <v>0</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M289" s="3" t="s">
         <v>108</v>
@@ -17140,7 +17137,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B290" s="4">
         <v>2.0</v>
@@ -17155,7 +17152,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G290" s="2" t="s">
         <v>16</v>
@@ -17173,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="M290" s="3" t="s">
         <v>61</v>
@@ -17184,7 +17181,7 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B291" s="3">
         <v>5.0</v>
@@ -17214,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M291" s="3" t="s">
         <v>338</v>
@@ -17225,7 +17222,7 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B292" s="3">
         <v>3.0</v>
@@ -17240,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G292" s="3" t="s">
         <v>16</v>
@@ -17252,13 +17249,13 @@
         <v>147</v>
       </c>
       <c r="J292" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="K292" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="K292" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L292" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="M292" s="3" t="s">
         <v>139</v>
@@ -17269,7 +17266,7 @@
     </row>
     <row r="293">
       <c r="A293" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B293" s="3">
         <v>7.0</v>
@@ -17284,7 +17281,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>16</v>
@@ -17302,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M293" s="3" t="s">
         <v>203</v>
@@ -17313,7 +17310,7 @@
     </row>
     <row r="294">
       <c r="A294" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B294" s="3">
         <v>9.0</v>
@@ -17328,7 +17325,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>16</v>
@@ -17346,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M294" s="3" t="s">
         <v>74</v>
@@ -17357,7 +17354,7 @@
     </row>
     <row r="295">
       <c r="A295" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B295" s="3">
         <v>2.0</v>
@@ -17372,7 +17369,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>16</v>
@@ -17390,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M295" s="3" t="s">
         <v>149</v>
@@ -17401,7 +17398,7 @@
     </row>
     <row r="296">
       <c r="A296" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B296" s="3">
         <v>1.0</v>
@@ -17416,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H296" s="3" t="b">
         <v>0</v>
@@ -17431,7 +17428,7 @@
         <v>0</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M296" s="3" t="s">
         <v>172</v>
@@ -17442,7 +17439,7 @@
     </row>
     <row r="297">
       <c r="A297" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B297" s="3">
         <v>1.0</v>
@@ -17457,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>123</v>
@@ -17475,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M297" s="3" t="s">
         <v>153</v>
@@ -17486,7 +17483,7 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B298" s="3">
         <v>0.0</v>
@@ -17501,7 +17498,7 @@
         <v>1</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>123</v>
@@ -17519,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M298" s="3" t="s">
         <v>50</v>
@@ -17530,7 +17527,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B299" s="4">
         <v>0.0</v>
@@ -17561,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M299" s="3" t="s">
         <v>20</v>
@@ -17572,7 +17569,7 @@
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B300" s="3">
         <v>2.0</v>
@@ -17602,10 +17599,10 @@
         <v>1</v>
       </c>
       <c r="L300" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="M300" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="M300" s="3" t="s">
-        <v>913</v>
       </c>
       <c r="N300" s="3" t="s">
         <v>21</v>
@@ -17613,7 +17610,7 @@
     </row>
     <row r="301">
       <c r="A301" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B301" s="3">
         <v>1.0</v>
@@ -17628,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>16</v>
@@ -17646,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M301" s="3" t="s">
         <v>338</v>
@@ -17657,7 +17654,7 @@
     </row>
     <row r="302">
       <c r="A302" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B302" s="3">
         <v>7.0</v>
@@ -17672,10 +17669,10 @@
         <v>1</v>
       </c>
       <c r="F302" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="G302" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="G302" s="3" t="s">
-        <v>918</v>
       </c>
       <c r="H302" s="3" t="b">
         <v>0</v>
@@ -17690,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M302" s="3" t="s">
         <v>203</v>
@@ -17701,7 +17698,7 @@
     </row>
     <row r="303">
       <c r="A303" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B303" s="3">
         <v>1.0</v>
@@ -17716,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>16</v>
@@ -17734,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M303" s="3" t="s">
         <v>338</v>
@@ -17745,7 +17742,7 @@
     </row>
     <row r="304">
       <c r="A304" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B304" s="3">
         <v>3.0</v>
@@ -17760,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>16</v>
@@ -17778,10 +17775,10 @@
         <v>0</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N304" s="3" t="s">
         <v>21</v>
@@ -17789,7 +17786,7 @@
     </row>
     <row r="305">
       <c r="A305" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B305" s="3">
         <v>3.0</v>
@@ -17804,7 +17801,7 @@
         <v>1</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>16</v>
@@ -17822,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M305" s="3" t="s">
         <v>172</v>
@@ -17833,7 +17830,7 @@
     </row>
     <row r="306">
       <c r="A306" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B306" s="3">
         <v>0.0</v>
@@ -17863,10 +17860,10 @@
         <v>0</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N306" s="3" t="s">
         <v>21</v>
@@ -17874,7 +17871,7 @@
     </row>
     <row r="307">
       <c r="A307" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B307" s="3">
         <v>1.0</v>
@@ -17904,7 +17901,7 @@
         <v>1</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M307" s="3" t="s">
         <v>44</v>
@@ -17915,7 +17912,7 @@
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B308" s="3">
         <v>3.0</v>
@@ -17930,7 +17927,7 @@
         <v>1</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>16</v>
@@ -17948,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M308" s="3" t="s">
         <v>121</v>
@@ -17959,7 +17956,7 @@
     </row>
     <row r="309">
       <c r="A309" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B309" s="3">
         <v>3.0</v>
@@ -17989,7 +17986,7 @@
         <v>0</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M309" s="3" t="s">
         <v>44</v>
@@ -18000,7 +17997,7 @@
     </row>
     <row r="310">
       <c r="A310" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B310" s="3">
         <v>2.0</v>
@@ -18015,7 +18012,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>16</v>
@@ -18033,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="M310" s="3" t="s">
         <v>407</v>
@@ -18044,7 +18041,7 @@
     </row>
     <row r="311">
       <c r="A311" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B311" s="3">
         <v>2.0</v>
@@ -18059,7 +18056,7 @@
         <v>1</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>16</v>
@@ -18077,7 +18074,7 @@
         <v>0</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M311" s="3" t="s">
         <v>132</v>
@@ -18088,7 +18085,7 @@
     </row>
     <row r="312">
       <c r="A312" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B312" s="3">
         <v>3.0</v>
@@ -18103,7 +18100,7 @@
         <v>1</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>16</v>
@@ -18115,13 +18112,13 @@
         <v>81</v>
       </c>
       <c r="J312" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="K312" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="K312" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>946</v>
       </c>
       <c r="M312" s="3" t="s">
         <v>104</v>
@@ -18132,7 +18129,7 @@
     </row>
     <row r="313">
       <c r="A313" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B313" s="3">
         <v>2.0</v>
@@ -18162,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M313" s="3" t="s">
         <v>104</v>
@@ -18173,7 +18170,7 @@
     </row>
     <row r="314">
       <c r="A314" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B314" s="3">
         <v>4.0</v>
@@ -18203,7 +18200,7 @@
         <v>0</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M314" s="3" t="s">
         <v>108</v>
@@ -18214,7 +18211,7 @@
     </row>
     <row r="315">
       <c r="A315" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B315" s="3">
         <v>3.0</v>
@@ -18229,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>16</v>
@@ -18247,7 +18244,7 @@
         <v>0</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="M315" s="3" t="s">
         <v>338</v>
@@ -18258,7 +18255,7 @@
     </row>
     <row r="316">
       <c r="A316" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B316" s="3">
         <v>4.0</v>
@@ -18273,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>16</v>
@@ -18291,10 +18288,10 @@
         <v>0</v>
       </c>
       <c r="L316" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="M316" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="M316" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="N316" s="3" t="s">
         <v>21</v>
@@ -18302,7 +18299,7 @@
     </row>
     <row r="317">
       <c r="A317" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B317" s="3">
         <v>4.0</v>
@@ -18317,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>16</v>
@@ -18335,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M317" s="3" t="s">
         <v>313</v>
@@ -18346,7 +18343,7 @@
     </row>
     <row r="318">
       <c r="A318" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B318" s="3">
         <v>9.0</v>
@@ -18370,13 +18367,13 @@
         <v>58</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K318" s="3" t="b">
         <v>0</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M318" s="3" t="s">
         <v>50</v>
@@ -18387,7 +18384,7 @@
     </row>
     <row r="319">
       <c r="A319" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B319" s="3">
         <v>2.0</v>
@@ -18402,7 +18399,7 @@
         <v>0</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>16</v>
@@ -18420,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="M319" s="3" t="s">
         <v>149</v>
@@ -18431,7 +18428,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B320" s="4">
         <v>6.0</v>
@@ -18446,7 +18443,7 @@
         <v>1</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>16</v>
@@ -18458,16 +18455,16 @@
         <v>58</v>
       </c>
       <c r="J320" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K320" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M320" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N320" s="3" t="s">
         <v>21</v>
@@ -18475,7 +18472,7 @@
     </row>
     <row r="321">
       <c r="A321" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B321" s="3">
         <v>8.0</v>
@@ -18490,7 +18487,7 @@
         <v>1</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>16</v>
@@ -18508,10 +18505,10 @@
         <v>0</v>
       </c>
       <c r="L321" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M321" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N321" s="3" t="s">
         <v>21</v>
@@ -18519,7 +18516,7 @@
     </row>
     <row r="322">
       <c r="A322" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B322" s="3">
         <v>5.0</v>
@@ -18534,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>123</v>
@@ -18552,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="M322" s="3" t="s">
         <v>239</v>
@@ -18563,7 +18560,7 @@
     </row>
     <row r="323">
       <c r="A323" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B323" s="3">
         <v>7.0</v>
@@ -18578,7 +18575,7 @@
         <v>1</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>31</v>
@@ -18587,7 +18584,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J323" s="3" t="s">
         <v>88</v>
@@ -18596,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M323" s="3" t="s">
         <v>139</v>
@@ -18607,7 +18604,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B324" s="4">
         <v>1.0</v>
@@ -18622,7 +18619,7 @@
         <v>1</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>16</v>
@@ -18640,10 +18637,10 @@
         <v>0</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N324" s="3" t="s">
         <v>21</v>
@@ -18651,7 +18648,7 @@
     </row>
     <row r="325">
       <c r="A325" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B325" s="3">
         <v>5.0</v>
@@ -18681,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M325" s="3" t="s">
         <v>172</v>
@@ -18692,7 +18689,7 @@
     </row>
     <row r="326">
       <c r="A326" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B326" s="3">
         <v>8.0</v>
@@ -18707,7 +18704,7 @@
         <v>1</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>16</v>
@@ -18719,13 +18716,13 @@
         <v>42</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K326" s="3" t="b">
         <v>0</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M326" s="3" t="s">
         <v>203</v>
@@ -18736,7 +18733,7 @@
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B327" s="3">
         <v>7.0</v>
@@ -18766,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="L327" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M327" s="3" t="s">
         <v>338</v>
@@ -18777,7 +18774,7 @@
     </row>
     <row r="328">
       <c r="A328" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B328" s="3">
         <v>5.0</v>
@@ -18792,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>31</v>
@@ -18810,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M328" s="3" t="s">
         <v>338</v>
@@ -18821,7 +18818,7 @@
     </row>
     <row r="329">
       <c r="A329" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B329" s="3">
         <v>1.0</v>
@@ -18836,7 +18833,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>16</v>
@@ -18854,7 +18851,7 @@
         <v>1</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M329" s="3" t="s">
         <v>203</v>
@@ -18865,7 +18862,7 @@
     </row>
     <row r="330">
       <c r="A330" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B330" s="3">
         <v>0.0</v>
@@ -18895,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M330" s="3" t="s">
         <v>104</v>
@@ -18906,7 +18903,7 @@
     </row>
     <row r="331">
       <c r="A331" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B331" s="3">
         <v>0.0</v>
@@ -18921,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G331" s="3" t="s">
         <v>16</v>
@@ -18939,10 +18936,10 @@
         <v>0</v>
       </c>
       <c r="L331" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="M331" s="3" t="s">
         <v>997</v>
-      </c>
-      <c r="M331" s="3" t="s">
-        <v>998</v>
       </c>
       <c r="N331" s="3" t="s">
         <v>21</v>
@@ -18950,7 +18947,7 @@
     </row>
     <row r="332">
       <c r="A332" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B332" s="3">
         <v>1.0</v>
@@ -18980,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="L332" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M332" s="3" t="s">
         <v>108</v>
@@ -18991,7 +18988,7 @@
     </row>
     <row r="333">
       <c r="A333" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B333" s="3">
         <v>1.0</v>
@@ -19015,13 +19012,13 @@
         <v>17</v>
       </c>
       <c r="J333" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K333" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" s="3" t="s">
         <v>1002</v>
-      </c>
-      <c r="K333" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="M333" s="3" t="s">
         <v>233</v>
@@ -19032,7 +19029,7 @@
     </row>
     <row r="334">
       <c r="A334" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B334" s="3">
         <v>9.0</v>
@@ -19062,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M334" s="3" t="s">
         <v>172</v>
@@ -19073,7 +19070,7 @@
     </row>
     <row r="335">
       <c r="A335" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B335" s="3">
         <v>3.0</v>
@@ -19088,7 +19085,7 @@
         <v>0</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G335" s="3" t="s">
         <v>16</v>
@@ -19106,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="L335" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M335" s="3" t="s">
         <v>401</v>
@@ -19117,7 +19114,7 @@
     </row>
     <row r="336">
       <c r="A336" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B336" s="3">
         <v>6.0</v>
@@ -19147,7 +19144,7 @@
         <v>0</v>
       </c>
       <c r="L336" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M336" s="3" t="s">
         <v>50</v>
@@ -19158,7 +19155,7 @@
     </row>
     <row r="337">
       <c r="A337" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B337" s="3">
         <v>5.0</v>
@@ -19188,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="L337" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M337" s="3" t="s">
         <v>132</v>
@@ -19199,7 +19196,7 @@
     </row>
     <row r="338">
       <c r="A338" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B338" s="3">
         <v>9.0</v>
@@ -19214,7 +19211,7 @@
         <v>1</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>16</v>
@@ -19232,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="L338" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M338" s="3" t="s">
         <v>373</v>
@@ -19243,7 +19240,7 @@
     </row>
     <row r="339">
       <c r="A339" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B339" s="3">
         <v>9.0</v>
@@ -19258,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>71</v>
@@ -19276,7 +19273,7 @@
         <v>0</v>
       </c>
       <c r="L339" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M339" s="3" t="s">
         <v>261</v>
@@ -19287,7 +19284,7 @@
     </row>
     <row r="340">
       <c r="A340" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B340" s="3">
         <v>6.0</v>
@@ -19302,7 +19299,7 @@
         <v>1</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>16</v>
@@ -19320,7 +19317,7 @@
         <v>0</v>
       </c>
       <c r="L340" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M340" s="3" t="s">
         <v>401</v>
@@ -19331,7 +19328,7 @@
     </row>
     <row r="341">
       <c r="A341" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B341" s="3">
         <v>0.0</v>
@@ -19352,7 +19349,7 @@
         <v>1</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J341" s="3" t="s">
         <v>26</v>
@@ -19361,7 +19358,7 @@
         <v>0</v>
       </c>
       <c r="L341" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M341" s="3" t="s">
         <v>149</v>
@@ -19372,7 +19369,7 @@
     </row>
     <row r="342">
       <c r="A342" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B342" s="3">
         <v>8.0</v>
@@ -19393,16 +19390,16 @@
         <v>1</v>
       </c>
       <c r="I342" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="K342" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="3" t="s">
         <v>1026</v>
-      </c>
-      <c r="J342" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="K342" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="3" t="s">
-        <v>1027</v>
       </c>
       <c r="M342" s="3" t="s">
         <v>50</v>
@@ -19413,7 +19410,7 @@
     </row>
     <row r="343">
       <c r="A343" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B343" s="3">
         <v>1.0</v>
@@ -19428,7 +19425,7 @@
         <v>1</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>16</v>
@@ -19446,7 +19443,7 @@
         <v>1</v>
       </c>
       <c r="L343" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M343" s="3" t="s">
         <v>373</v>
@@ -19457,7 +19454,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B344" s="4">
         <v>3.0</v>
@@ -19488,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M344" s="3" t="s">
         <v>257</v>
@@ -19499,7 +19496,7 @@
     </row>
     <row r="345">
       <c r="A345" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B345" s="3">
         <v>0.0</v>
@@ -19529,7 +19526,7 @@
         <v>0</v>
       </c>
       <c r="L345" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M345" s="3" t="s">
         <v>177</v>
@@ -19540,7 +19537,7 @@
     </row>
     <row r="346">
       <c r="A346" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B346" s="3">
         <v>4.0</v>
@@ -19555,7 +19552,7 @@
         <v>1</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>16</v>
@@ -19573,10 +19570,10 @@
         <v>0</v>
       </c>
       <c r="L346" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M346" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N346" s="3" t="s">
         <v>21</v>
@@ -19584,7 +19581,7 @@
     </row>
     <row r="347">
       <c r="A347" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B347" s="3">
         <v>5.0</v>
@@ -19599,7 +19596,7 @@
         <v>1</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>16</v>
@@ -19617,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="L347" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M347" s="3" t="s">
         <v>203</v>
@@ -19628,7 +19625,7 @@
     </row>
     <row r="348">
       <c r="A348" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B348" s="3">
         <v>6.0</v>
@@ -19643,7 +19640,7 @@
         <v>1</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>16</v>
@@ -19661,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="L348" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M348" s="3" t="s">
         <v>203</v>
@@ -19672,7 +19669,7 @@
     </row>
     <row r="349">
       <c r="A349" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B349" s="3">
         <v>5.0</v>
@@ -19687,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>16</v>
@@ -19705,10 +19702,10 @@
         <v>0</v>
       </c>
       <c r="L349" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M349" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="M349" s="3" t="s">
-        <v>1047</v>
       </c>
       <c r="N349" s="3" t="s">
         <v>21</v>
@@ -19716,7 +19713,7 @@
     </row>
     <row r="350">
       <c r="A350" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B350" s="3">
         <v>6.0</v>
@@ -19731,7 +19728,7 @@
         <v>1</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>16</v>
@@ -19749,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="L350" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M350" s="3" t="s">
         <v>50</v>
@@ -19760,7 +19757,7 @@
     </row>
     <row r="351">
       <c r="A351" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B351" s="3">
         <v>2.0</v>
@@ -19775,7 +19772,7 @@
         <v>1</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>16</v>
@@ -19793,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="L351" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M351" s="3" t="s">
         <v>104</v>
@@ -19804,7 +19801,7 @@
     </row>
     <row r="352">
       <c r="A352" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B352" s="3">
         <v>3.0</v>
@@ -19819,7 +19816,7 @@
         <v>1</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>16</v>
@@ -19837,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="L352" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M352" s="3" t="s">
         <v>313</v>
@@ -19848,7 +19845,7 @@
     </row>
     <row r="353">
       <c r="A353" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B353" s="3">
         <v>3.0</v>
@@ -19863,7 +19860,7 @@
         <v>1</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>16</v>
@@ -19881,10 +19878,10 @@
         <v>1</v>
       </c>
       <c r="L353" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M353" s="3" t="s">
         <v>1059</v>
-      </c>
-      <c r="M353" s="3" t="s">
-        <v>1060</v>
       </c>
       <c r="N353" s="3" t="s">
         <v>21</v>
@@ -19892,7 +19889,7 @@
     </row>
     <row r="354">
       <c r="A354" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B354" s="3">
         <v>2.0</v>
@@ -19907,7 +19904,7 @@
         <v>1</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>16</v>
@@ -19925,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="L354" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="M354" s="3" t="s">
         <v>20</v>
@@ -19936,7 +19933,7 @@
     </row>
     <row r="355">
       <c r="A355" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B355" s="3">
         <v>9.0</v>
@@ -19966,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="L355" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M355" s="3" t="s">
         <v>203</v>
@@ -19977,7 +19974,7 @@
     </row>
     <row r="356">
       <c r="A356" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B356" s="3">
         <v>6.0</v>
@@ -19992,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>31</v>
@@ -20010,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="L356" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M356" s="3" t="s">
         <v>50</v>
@@ -20021,7 +20018,7 @@
     </row>
     <row r="357">
       <c r="A357" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B357" s="3">
         <v>3.0</v>
@@ -20036,7 +20033,7 @@
         <v>1</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>16</v>
@@ -20054,7 +20051,7 @@
         <v>0</v>
       </c>
       <c r="L357" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M357" s="3" t="s">
         <v>132</v>
@@ -20065,7 +20062,7 @@
     </row>
     <row r="358">
       <c r="A358" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B358" s="3">
         <v>9.0</v>
@@ -20095,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="L358" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M358" s="3" t="s">
         <v>172</v>
@@ -20106,7 +20103,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B359" s="4">
         <v>1.0</v>
@@ -20121,7 +20118,7 @@
         <v>1</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>16</v>
@@ -20139,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="L359" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="M359" s="3" t="s">
         <v>84</v>
@@ -20150,7 +20147,7 @@
     </row>
     <row r="360">
       <c r="A360" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B360" s="3">
         <v>6.0</v>
@@ -20180,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="L360" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M360" s="3" t="s">
         <v>104</v>
@@ -20191,7 +20188,7 @@
     </row>
     <row r="361">
       <c r="A361" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B361" s="3">
         <v>1.0</v>
@@ -20221,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="L361" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M361" s="3" t="s">
         <v>108</v>
@@ -20232,7 +20229,7 @@
     </row>
     <row r="362">
       <c r="A362" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B362" s="3">
         <v>2.0</v>
@@ -20262,10 +20259,10 @@
         <v>0</v>
       </c>
       <c r="L362" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M362" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N362" s="3" t="s">
         <v>21</v>
@@ -20273,7 +20270,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B363" s="4">
         <v>8.0</v>
@@ -20288,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>16</v>
@@ -20306,18 +20303,18 @@
         <v>0</v>
       </c>
       <c r="L363" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="M363" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N363" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B364" s="3">
         <v>1.0</v>
@@ -20332,7 +20329,7 @@
         <v>1</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H364" s="3" t="b">
         <v>0</v>
@@ -20347,18 +20344,18 @@
         <v>0</v>
       </c>
       <c r="L364" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M364" s="3" t="s">
         <v>313</v>
       </c>
       <c r="N364" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B365" s="3">
         <v>2.0</v>
@@ -20373,7 +20370,7 @@
         <v>1</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>16</v>
@@ -20391,18 +20388,18 @@
         <v>0</v>
       </c>
       <c r="L365" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M365" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N365" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B366" s="3">
         <v>1.0</v>
@@ -20417,7 +20414,7 @@
         <v>1</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>16</v>
@@ -20435,18 +20432,18 @@
         <v>0</v>
       </c>
       <c r="L366" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M366" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N366" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B367" s="3">
         <v>6.0</v>
@@ -20476,18 +20473,18 @@
         <v>0</v>
       </c>
       <c r="L367" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="M367" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N367" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B368" s="3">
         <v>1.0</v>
@@ -20517,18 +20514,18 @@
         <v>0</v>
       </c>
       <c r="L368" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M368" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N368" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B369" s="3">
         <v>3.0</v>
@@ -20543,7 +20540,7 @@
         <v>1</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>16</v>
@@ -20561,18 +20558,18 @@
         <v>0</v>
       </c>
       <c r="L369" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="M369" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N369" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B370" s="3">
         <v>1.0</v>
@@ -20602,18 +20599,18 @@
         <v>0</v>
       </c>
       <c r="L370" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M370" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N370" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B371" s="3">
         <v>1.0</v>
@@ -20628,7 +20625,7 @@
         <v>1</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>71</v>
@@ -20646,18 +20643,18 @@
         <v>1</v>
       </c>
       <c r="L371" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M371" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N371" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B372" s="3">
         <v>1.0</v>
@@ -20687,18 +20684,18 @@
         <v>0</v>
       </c>
       <c r="L372" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M372" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="M372" s="3" t="s">
-        <v>1110</v>
-      </c>
       <c r="N372" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B373" s="3">
         <v>4.0</v>
@@ -20728,18 +20725,18 @@
         <v>0</v>
       </c>
       <c r="L373" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="M373" s="3" t="s">
         <v>184</v>
       </c>
       <c r="N373" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B374" s="3">
         <v>0.0</v>
@@ -20760,7 +20757,7 @@
         <v>0</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J374" s="3" t="s">
         <v>18</v>
@@ -20769,18 +20766,18 @@
         <v>0</v>
       </c>
       <c r="L374" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M374" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N374" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B375" s="3">
         <v>5.0</v>
@@ -20810,18 +20807,18 @@
         <v>0</v>
       </c>
       <c r="L375" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M375" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N375" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B376" s="3">
         <v>0.0</v>
@@ -20851,18 +20848,18 @@
         <v>0</v>
       </c>
       <c r="L376" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M376" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N376" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B377" s="3">
         <v>6.0</v>
@@ -20877,7 +20874,7 @@
         <v>1</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G377" s="3" t="s">
         <v>71</v>
@@ -20895,18 +20892,18 @@
         <v>0</v>
       </c>
       <c r="L377" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="M377" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N377" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B378" s="4">
         <v>7.0</v>
@@ -20937,18 +20934,18 @@
         <v>0</v>
       </c>
       <c r="L378" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="M378" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N378" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B379" s="3">
         <v>5.0</v>
@@ -20978,18 +20975,18 @@
         <v>0</v>
       </c>
       <c r="L379" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="M379" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N379" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B380" s="4">
         <v>5.0</v>
@@ -21004,7 +21001,7 @@
         <v>1</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>16</v>
@@ -21022,18 +21019,18 @@
         <v>0</v>
       </c>
       <c r="L380" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M380" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N380" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B381" s="3">
         <v>2.0</v>
@@ -21048,7 +21045,7 @@
         <v>1</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>123</v>
@@ -21066,18 +21063,18 @@
         <v>0</v>
       </c>
       <c r="L381" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="M381" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N381" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B382" s="3">
         <v>6.0</v>
@@ -21092,7 +21089,7 @@
         <v>1</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>197</v>
@@ -21110,18 +21107,18 @@
         <v>0</v>
       </c>
       <c r="L382" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="M382" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N382" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B383" s="3">
         <v>2.0</v>
@@ -21136,7 +21133,7 @@
         <v>1</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>16</v>
@@ -21154,18 +21151,18 @@
         <v>0</v>
       </c>
       <c r="L383" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="M383" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N383" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B384" s="3">
         <v>2.0</v>
@@ -21195,18 +21192,18 @@
         <v>0</v>
       </c>
       <c r="L384" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="M384" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N384" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B385" s="3">
         <v>1.0</v>
@@ -21236,18 +21233,18 @@
         <v>0</v>
       </c>
       <c r="L385" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M385" s="3" t="s">
         <v>233</v>
       </c>
       <c r="N385" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B386" s="3">
         <v>4.0</v>
@@ -21277,18 +21274,18 @@
         <v>0</v>
       </c>
       <c r="L386" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M386" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="M386" s="3" t="s">
-        <v>1145</v>
-      </c>
       <c r="N386" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B387" s="3">
         <v>3.0</v>
@@ -21318,18 +21315,18 @@
         <v>0</v>
       </c>
       <c r="L387" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="M387" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N387" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B388" s="4">
         <v>5.0</v>
@@ -21360,18 +21357,18 @@
         <v>0</v>
       </c>
       <c r="L388" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="M388" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N388" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B389" s="3">
         <v>3.0</v>
@@ -21386,7 +21383,7 @@
         <v>1</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>16</v>
@@ -21404,18 +21401,18 @@
         <v>0</v>
       </c>
       <c r="L389" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M389" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N389" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B390" s="3">
         <v>5.0</v>
@@ -21445,18 +21442,18 @@
         <v>0</v>
       </c>
       <c r="L390" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M390" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N390" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B391" s="3">
         <v>4.0</v>
@@ -21486,18 +21483,18 @@
         <v>0</v>
       </c>
       <c r="L391" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M391" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N391" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B392" s="3">
         <v>3.0</v>
@@ -21527,18 +21524,18 @@
         <v>0</v>
       </c>
       <c r="L392" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="M392" s="3" t="s">
         <v>313</v>
       </c>
       <c r="N392" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B393" s="3">
         <v>0.0</v>
@@ -21568,18 +21565,18 @@
         <v>0</v>
       </c>
       <c r="L393" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M393" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N393" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B394" s="3">
         <v>4.0</v>
@@ -21609,18 +21606,18 @@
         <v>0</v>
       </c>
       <c r="L394" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M394" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N394" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B395" s="3">
         <v>0.0</v>
@@ -21650,18 +21647,18 @@
         <v>0</v>
       </c>
       <c r="L395" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M395" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N395" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B396" s="3">
         <v>2.0</v>
@@ -21691,18 +21688,18 @@
         <v>0</v>
       </c>
       <c r="L396" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="M396" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N396" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B397" s="3">
         <v>5.0</v>
@@ -21732,18 +21729,18 @@
         <v>0</v>
       </c>
       <c r="L397" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M397" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N397" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B398" s="4">
         <v>1.0</v>
@@ -21758,7 +21755,7 @@
         <v>1</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G398" s="2" t="s">
         <v>16</v>
@@ -21776,18 +21773,18 @@
         <v>0</v>
       </c>
       <c r="L398" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="M398" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N398" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B399" s="4">
         <v>8.0</v>
@@ -21818,18 +21815,18 @@
         <v>0</v>
       </c>
       <c r="L399" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="M399" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N399" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B400" s="3">
         <v>5.0</v>
@@ -21859,18 +21856,18 @@
         <v>0</v>
       </c>
       <c r="L400" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="M400" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N400" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B401" s="3">
         <v>5.0</v>
@@ -21885,7 +21882,7 @@
         <v>1</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>31</v>
@@ -21903,18 +21900,18 @@
         <v>0</v>
       </c>
       <c r="L401" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M401" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N401" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B402" s="3">
         <v>0.0</v>
@@ -21929,7 +21926,7 @@
         <v>1</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>16</v>
@@ -21947,18 +21944,18 @@
         <v>0</v>
       </c>
       <c r="L402" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="M402" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N402" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B403" s="3">
         <v>6.0</v>
@@ -21988,18 +21985,18 @@
         <v>0</v>
       </c>
       <c r="L403" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="M403" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N403" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B404" s="3">
         <v>6.0</v>
@@ -22029,18 +22026,18 @@
         <v>0</v>
       </c>
       <c r="L404" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="M404" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N404" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B405" s="3">
         <v>6.0</v>
@@ -22070,18 +22067,18 @@
         <v>0</v>
       </c>
       <c r="L405" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="M405" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N405" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B406" s="3">
         <v>6.0</v>
@@ -22111,18 +22108,18 @@
         <v>0</v>
       </c>
       <c r="L406" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="M406" s="3" t="s">
         <v>156</v>
       </c>
       <c r="N406" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B407" s="3">
         <v>9.0</v>
@@ -22137,7 +22134,7 @@
         <v>1</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>16</v>
@@ -22155,18 +22152,18 @@
         <v>0</v>
       </c>
       <c r="L407" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M407" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N407" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B408" s="4">
         <v>3.0</v>
@@ -22197,18 +22194,18 @@
         <v>0</v>
       </c>
       <c r="L408" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M408" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N408" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B409" s="4">
         <v>8.0</v>
@@ -22223,7 +22220,7 @@
         <v>0</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G409" s="2" t="s">
         <v>16</v>
@@ -22241,18 +22238,18 @@
         <v>0</v>
       </c>
       <c r="L409" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="M409" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N409" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B410" s="3">
         <v>5.0</v>
@@ -22267,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>16</v>
@@ -22285,18 +22282,18 @@
         <v>0</v>
       </c>
       <c r="L410" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="M410" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N410" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B411" s="3">
         <v>0.0</v>
@@ -22326,18 +22323,18 @@
         <v>0</v>
       </c>
       <c r="L411" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M411" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="M411" s="3" t="s">
-        <v>1203</v>
-      </c>
       <c r="N411" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B412" s="3">
         <v>9.0</v>
@@ -22352,7 +22349,7 @@
         <v>1</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>16</v>
@@ -22370,18 +22367,18 @@
         <v>0</v>
       </c>
       <c r="L412" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="M412" s="3" t="s">
         <v>338</v>
       </c>
       <c r="N412" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B413" s="3">
         <v>2.0</v>
@@ -22396,7 +22393,7 @@
         <v>1</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>16</v>
@@ -22414,18 +22411,18 @@
         <v>0</v>
       </c>
       <c r="L413" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M413" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N413" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B414" s="3">
         <v>3.0</v>
@@ -22440,7 +22437,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>16</v>
@@ -22458,18 +22455,18 @@
         <v>0</v>
       </c>
       <c r="L414" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M414" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N414" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B415" s="3">
         <v>6.0</v>
@@ -22499,18 +22496,18 @@
         <v>0</v>
       </c>
       <c r="L415" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="M415" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N415" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B416" s="3">
         <v>8.0</v>
@@ -22525,7 +22522,7 @@
         <v>1</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>31</v>
@@ -22543,18 +22540,18 @@
         <v>0</v>
       </c>
       <c r="L416" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M416" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N416" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B417" s="3">
         <v>2.0</v>
@@ -22584,18 +22581,18 @@
         <v>0</v>
       </c>
       <c r="L417" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="M417" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N417" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B418" s="3">
         <v>0.0</v>
@@ -22616,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J418" s="3" t="s">
         <v>26</v>
@@ -22625,18 +22622,18 @@
         <v>0</v>
       </c>
       <c r="L418" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="M418" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N418" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B419" s="4">
         <v>5.0</v>
@@ -22651,7 +22648,7 @@
         <v>0</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G419" s="2" t="s">
         <v>16</v>
@@ -22669,18 +22666,18 @@
         <v>0</v>
       </c>
       <c r="L419" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="M419" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N419" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B420" s="4">
         <v>7.0</v>
@@ -22711,18 +22708,18 @@
         <v>0</v>
       </c>
       <c r="L420" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M420" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N420" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B421" s="3">
         <v>0.0</v>
@@ -22752,18 +22749,18 @@
         <v>0</v>
       </c>
       <c r="L421" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="M421" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N421" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B422" s="3">
         <v>6.0</v>
@@ -22793,18 +22790,18 @@
         <v>0</v>
       </c>
       <c r="L422" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M422" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N422" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B423" s="3">
         <v>9.0</v>
@@ -22834,18 +22831,18 @@
         <v>0</v>
       </c>
       <c r="L423" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="M423" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N423" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B424" s="3">
         <v>2.0</v>
@@ -22875,18 +22872,18 @@
         <v>0</v>
       </c>
       <c r="L424" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="M424" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N424" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B425" s="3">
         <v>6.0</v>
@@ -22916,18 +22913,18 @@
         <v>0</v>
       </c>
       <c r="L425" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M425" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N425" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B426" s="4">
         <v>2.0</v>
@@ -22958,18 +22955,18 @@
         <v>0</v>
       </c>
       <c r="L426" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="M426" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N426" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B427" s="3">
         <v>4.0</v>
@@ -22984,7 +22981,7 @@
         <v>1</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>16</v>
@@ -23002,18 +22999,18 @@
         <v>0</v>
       </c>
       <c r="L427" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="M427" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N427" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B428" s="3">
         <v>0.0</v>
@@ -23034,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J428" s="3" t="s">
         <v>26</v>
@@ -23043,18 +23040,18 @@
         <v>0</v>
       </c>
       <c r="L428" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="M428" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N428" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B429" s="4">
         <v>4.0</v>
@@ -23085,18 +23082,18 @@
         <v>0</v>
       </c>
       <c r="L429" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="M429" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N429" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B430" s="3">
         <v>5.0</v>
@@ -23126,18 +23123,18 @@
         <v>0</v>
       </c>
       <c r="L430" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="M430" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N430" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B431" s="3">
         <v>2.0</v>
@@ -23161,24 +23158,24 @@
         <v>36</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K431" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L431" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M431" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="M431" s="3" t="s">
-        <v>1248</v>
-      </c>
       <c r="N431" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B432" s="3">
         <v>1.0</v>
@@ -23193,7 +23190,7 @@
         <v>1</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>31</v>
@@ -23211,18 +23208,18 @@
         <v>0</v>
       </c>
       <c r="L432" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M432" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="M432" s="3" t="s">
-        <v>1252</v>
-      </c>
       <c r="N432" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B433" s="3">
         <v>2.0</v>
@@ -23237,7 +23234,7 @@
         <v>1</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>16</v>
@@ -23255,18 +23252,18 @@
         <v>0</v>
       </c>
       <c r="L433" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M433" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N433" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B434" s="4">
         <v>6.0</v>
@@ -23281,10 +23278,10 @@
         <v>1</v>
       </c>
       <c r="F434" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G434" s="10" t="s">
         <v>1257</v>
-      </c>
-      <c r="G434" s="10" t="s">
-        <v>1258</v>
       </c>
       <c r="H434" s="6" t="b">
         <v>0</v>
@@ -23299,18 +23296,18 @@
         <v>0</v>
       </c>
       <c r="L434" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="M434" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N434" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B435" s="3">
         <v>5.0</v>
@@ -23325,7 +23322,7 @@
         <v>1</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>16</v>
@@ -23343,18 +23340,18 @@
         <v>0</v>
       </c>
       <c r="L435" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M435" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="M435" s="3" t="s">
-        <v>1263</v>
-      </c>
       <c r="N435" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B436" s="3">
         <v>4.0</v>
@@ -23384,18 +23381,18 @@
         <v>0</v>
       </c>
       <c r="L436" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M436" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N436" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B437" s="3">
         <v>4.0</v>
@@ -23410,7 +23407,7 @@
         <v>1</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>16</v>
@@ -23428,18 +23425,18 @@
         <v>0</v>
       </c>
       <c r="L437" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="M437" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N437" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B438" s="3">
         <v>3.0</v>
@@ -23454,7 +23451,7 @@
         <v>1</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>16</v>
@@ -23472,18 +23469,18 @@
         <v>0</v>
       </c>
       <c r="L438" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M438" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N438" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B439" s="3">
         <v>5.0</v>
@@ -23513,18 +23510,18 @@
         <v>0</v>
       </c>
       <c r="L439" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="M439" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N439" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B440" s="3">
         <v>7.0</v>
@@ -23539,7 +23536,7 @@
         <v>1</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>71</v>
@@ -23557,18 +23554,18 @@
         <v>0</v>
       </c>
       <c r="L440" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="M440" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N440" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B441" s="3">
         <v>6.0</v>
@@ -23583,7 +23580,7 @@
         <v>1</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>16</v>
@@ -23601,18 +23598,18 @@
         <v>0</v>
       </c>
       <c r="L441" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M441" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N441" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B442" s="3">
         <v>0.0</v>
@@ -23642,18 +23639,18 @@
         <v>0</v>
       </c>
       <c r="L442" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M442" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="M442" s="3" t="s">
-        <v>1281</v>
-      </c>
       <c r="N442" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B443" s="3">
         <v>3.0</v>
@@ -23683,18 +23680,18 @@
         <v>0</v>
       </c>
       <c r="L443" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="M443" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N443" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B444" s="3">
         <v>3.0</v>
@@ -23709,7 +23706,7 @@
         <v>1</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>16</v>
@@ -23727,18 +23724,18 @@
         <v>0</v>
       </c>
       <c r="L444" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M444" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N444" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B445" s="3">
         <v>3.0</v>
@@ -23768,18 +23765,18 @@
         <v>0</v>
       </c>
       <c r="L445" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M445" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N445" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B446" s="3">
         <v>0.0</v>
@@ -23809,18 +23806,18 @@
         <v>0</v>
       </c>
       <c r="L446" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M446" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N446" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B447" s="3">
         <v>5.0</v>
@@ -23835,7 +23832,7 @@
         <v>1</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>16</v>
@@ -23853,18 +23850,18 @@
         <v>0</v>
       </c>
       <c r="L447" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M447" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="M447" s="3" t="s">
-        <v>1294</v>
-      </c>
       <c r="N447" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B448" s="3">
         <v>4.0</v>
@@ -23879,7 +23876,7 @@
         <v>1</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>16</v>
@@ -23897,18 +23894,18 @@
         <v>0</v>
       </c>
       <c r="L448" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="M448" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N448" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B449" s="3">
         <v>5.0</v>
@@ -23923,7 +23920,7 @@
         <v>1</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>16</v>
@@ -23941,18 +23938,18 @@
         <v>0</v>
       </c>
       <c r="L449" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="M449" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N449" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B450" s="3">
         <v>3.0</v>
@@ -23967,7 +23964,7 @@
         <v>1</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>16</v>
@@ -23985,18 +23982,18 @@
         <v>0</v>
       </c>
       <c r="L450" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="M450" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N450" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B451" s="3">
         <v>3.0</v>
@@ -24011,7 +24008,7 @@
         <v>1</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>16</v>
@@ -24029,18 +24026,18 @@
         <v>0</v>
       </c>
       <c r="L451" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M451" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N451" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B452" s="3">
         <v>2.0</v>
@@ -24070,18 +24067,18 @@
         <v>0</v>
       </c>
       <c r="L452" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M452" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="M452" s="3" t="s">
-        <v>1308</v>
-      </c>
       <c r="N452" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B453" s="3">
         <v>4.0</v>
@@ -24096,7 +24093,7 @@
         <v>1</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>16</v>
@@ -24114,18 +24111,18 @@
         <v>0</v>
       </c>
       <c r="L453" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M453" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N453" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B454" s="3">
         <v>7.0</v>
@@ -24140,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>16</v>
@@ -24158,18 +24155,18 @@
         <v>0</v>
       </c>
       <c r="L454" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="M454" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N454" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B455" s="3">
         <v>0.0</v>
@@ -24184,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>16</v>
@@ -24202,18 +24199,18 @@
         <v>0</v>
       </c>
       <c r="L455" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="M455" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N455" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B456" s="3">
         <v>5.0</v>
@@ -24243,18 +24240,18 @@
         <v>0</v>
       </c>
       <c r="L456" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="M456" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N456" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B457" s="3">
         <v>1.0</v>
@@ -24284,18 +24281,18 @@
         <v>0</v>
       </c>
       <c r="L457" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="M457" s="3" t="s">
         <v>239</v>
       </c>
       <c r="N457" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B458" s="3">
         <v>9.0</v>
@@ -24325,18 +24322,18 @@
         <v>0</v>
       </c>
       <c r="L458" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="M458" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N458" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B459" s="3">
         <v>0.0</v>
@@ -24351,7 +24348,7 @@
         <v>1</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G459" s="3" t="s">
         <v>16</v>
@@ -24363,24 +24360,24 @@
         <v>147</v>
       </c>
       <c r="J459" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K459" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="K459" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="3" t="s">
-        <v>1326</v>
       </c>
       <c r="M459" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N459" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B460" s="3">
         <v>7.0</v>
@@ -24395,7 +24392,7 @@
         <v>1</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>197</v>
@@ -24404,27 +24401,27 @@
         <v>0</v>
       </c>
       <c r="I460" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J460" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="J460" s="3" t="s">
+      <c r="K460" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L460" s="3" t="s">
         <v>1330</v>
-      </c>
-      <c r="K460" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="3" t="s">
-        <v>1331</v>
       </c>
       <c r="M460" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N460" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B461" s="3">
         <v>0.0</v>
@@ -24439,7 +24436,7 @@
         <v>1</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G461" s="3" t="s">
         <v>16</v>
@@ -24451,24 +24448,24 @@
         <v>17</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K461" s="3" t="b">
         <v>0</v>
       </c>
       <c r="L461" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="M461" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N461" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B462" s="3">
         <v>3.0</v>
@@ -24498,18 +24495,18 @@
         <v>0</v>
       </c>
       <c r="L462" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="M462" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N462" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B463" s="3">
         <v>0.0</v>
@@ -24533,24 +24530,24 @@
         <v>17</v>
       </c>
       <c r="J463" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K463" s="3" t="b">
         <v>0</v>
       </c>
       <c r="L463" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="M463" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N463" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B464" s="3">
         <v>0.0</v>
@@ -24580,18 +24577,18 @@
         <v>0</v>
       </c>
       <c r="L464" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M464" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N464" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B465" s="4">
         <v>3.0</v>
@@ -24622,18 +24619,18 @@
         <v>0</v>
       </c>
       <c r="L465" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="M465" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N465" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B466" s="3">
         <v>4.0</v>
@@ -24648,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G466" s="3" t="s">
         <v>16</v>
@@ -24666,18 +24663,18 @@
         <v>0</v>
       </c>
       <c r="L466" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="M466" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N466" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B467" s="3">
         <v>2.0</v>
@@ -24692,7 +24689,7 @@
         <v>1</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G467" s="3" t="s">
         <v>16</v>
@@ -24710,18 +24707,18 @@
         <v>0</v>
       </c>
       <c r="L467" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="M467" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N467" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B468" s="3">
         <v>5.0</v>
@@ -24736,7 +24733,7 @@
         <v>1</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G468" s="3" t="s">
         <v>16</v>
@@ -24754,18 +24751,18 @@
         <v>0</v>
       </c>
       <c r="L468" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="M468" s="3" t="s">
         <v>153</v>
       </c>
       <c r="N468" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B469" s="3">
         <v>4.0</v>
@@ -24780,7 +24777,7 @@
         <v>1</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G469" s="3" t="s">
         <v>16</v>
@@ -24798,18 +24795,18 @@
         <v>0</v>
       </c>
       <c r="L469" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="M469" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N469" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B470" s="3">
         <v>4.0</v>
@@ -24824,7 +24821,7 @@
         <v>1</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G470" s="3" t="s">
         <v>16</v>
@@ -24842,18 +24839,18 @@
         <v>0</v>
       </c>
       <c r="L470" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="M470" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="M470" s="3" t="s">
-        <v>1357</v>
-      </c>
       <c r="N470" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B471" s="3">
         <v>3.0</v>
@@ -24868,7 +24865,7 @@
         <v>1</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>16</v>
@@ -24886,18 +24883,18 @@
         <v>0</v>
       </c>
       <c r="L471" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M471" s="3" t="s">
         <v>1360</v>
       </c>
-      <c r="M471" s="3" t="s">
-        <v>1361</v>
-      </c>
       <c r="N471" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B472" s="3">
         <v>6.0</v>
@@ -24912,7 +24909,7 @@
         <v>1</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>16</v>
@@ -24930,18 +24927,18 @@
         <v>0</v>
       </c>
       <c r="L472" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M472" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N472" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B473" s="3">
         <v>3.0</v>
@@ -24956,7 +24953,7 @@
         <v>1</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G473" s="3" t="s">
         <v>16</v>
@@ -24974,18 +24971,18 @@
         <v>0</v>
       </c>
       <c r="L473" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="M473" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N473" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B474" s="3">
         <v>3.0</v>
@@ -25000,7 +24997,7 @@
         <v>1</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G474" s="3" t="s">
         <v>16</v>
@@ -25018,18 +25015,18 @@
         <v>0</v>
       </c>
       <c r="L474" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="M474" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N474" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B475" s="3">
         <v>0.0</v>
@@ -25053,24 +25050,24 @@
         <v>17</v>
       </c>
       <c r="J475" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K475" s="3" t="b">
         <v>0</v>
       </c>
       <c r="L475" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="M475" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N475" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B476" s="3">
         <v>1.0</v>
@@ -25085,7 +25082,7 @@
         <v>1</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G476" s="3" t="s">
         <v>16</v>
@@ -25097,24 +25094,24 @@
         <v>58</v>
       </c>
       <c r="J476" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K476" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L476" s="3" t="s">
         <v>1375</v>
-      </c>
-      <c r="K476" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L476" s="3" t="s">
-        <v>1376</v>
       </c>
       <c r="M476" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N476" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B477" s="3">
         <v>2.0</v>
@@ -25144,18 +25141,18 @@
         <v>0</v>
       </c>
       <c r="L477" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="M477" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N477" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B478" s="3">
         <v>6.0</v>
@@ -25170,7 +25167,7 @@
         <v>1</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G478" s="3" t="s">
         <v>123</v>
@@ -25188,18 +25185,18 @@
         <v>0</v>
       </c>
       <c r="L478" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="M478" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N478" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B479" s="3">
         <v>8.0</v>
@@ -25214,7 +25211,7 @@
         <v>1</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G479" s="3" t="s">
         <v>16</v>
@@ -25232,18 +25229,18 @@
         <v>0</v>
       </c>
       <c r="L479" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="M479" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N479" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B480" s="3">
         <v>2.0</v>
@@ -25258,7 +25255,7 @@
         <v>1</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>31</v>
@@ -25276,18 +25273,18 @@
         <v>0</v>
       </c>
       <c r="L480" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="M480" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N480" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B481" s="3">
         <v>1.0</v>
@@ -25317,18 +25314,18 @@
         <v>0</v>
       </c>
       <c r="L481" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="M481" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N481" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B482" s="3">
         <v>6.0</v>
@@ -25343,7 +25340,7 @@
         <v>1</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>16</v>
@@ -25355,24 +25352,24 @@
         <v>17</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K482" s="3" t="b">
         <v>0</v>
       </c>
       <c r="L482" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="M482" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N482" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B483" s="3">
         <v>4.0</v>
@@ -25387,7 +25384,7 @@
         <v>1</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G483" s="3" t="s">
         <v>16</v>
@@ -25405,18 +25402,18 @@
         <v>0</v>
       </c>
       <c r="L483" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="M483" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N483" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B484" s="3">
         <v>2.0</v>
@@ -25449,18 +25446,18 @@
         <v>0</v>
       </c>
       <c r="L484" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="M484" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N484" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B485" s="3">
         <v>1.0</v>
@@ -25490,18 +25487,18 @@
         <v>0</v>
       </c>
       <c r="L485" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="M485" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N485" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B486" s="3">
         <v>3.0</v>
@@ -25531,18 +25528,18 @@
         <v>0</v>
       </c>
       <c r="L486" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M486" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N486" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B487" s="3">
         <v>9.0</v>
@@ -25557,7 +25554,7 @@
         <v>1</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>16</v>
@@ -25569,24 +25566,24 @@
         <v>58</v>
       </c>
       <c r="J487" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K487" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L487" s="3" t="s">
         <v>1405</v>
-      </c>
-      <c r="K487" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L487" s="3" t="s">
-        <v>1406</v>
       </c>
       <c r="M487" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N487" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B488" s="3">
         <v>8.0</v>
@@ -25601,7 +25598,7 @@
         <v>1</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>16</v>
@@ -25619,18 +25616,18 @@
         <v>0</v>
       </c>
       <c r="L488" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="M488" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N488" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B489" s="3">
         <v>0.0</v>
@@ -25660,18 +25657,18 @@
         <v>0</v>
       </c>
       <c r="L489" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="M489" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N489" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B490" s="3">
         <v>5.0</v>
@@ -25686,7 +25683,7 @@
         <v>1</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H490" s="3" t="b">
         <v>0</v>
@@ -25701,18 +25698,18 @@
         <v>0</v>
       </c>
       <c r="L490" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M490" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N490" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B491" s="3">
         <v>7.0</v>
@@ -25727,7 +25724,7 @@
         <v>1</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G491" s="3" t="s">
         <v>16</v>
@@ -25745,18 +25742,18 @@
         <v>0</v>
       </c>
       <c r="L491" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="M491" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N491" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B492" s="3">
         <v>9.0</v>
@@ -25771,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G492" s="3" t="s">
         <v>16</v>
@@ -25789,18 +25786,18 @@
         <v>0</v>
       </c>
       <c r="L492" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="M492" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N492" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B493" s="3">
         <v>2.0</v>
@@ -25830,18 +25827,18 @@
         <v>1</v>
       </c>
       <c r="L493" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="M493" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N493" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B494" s="3">
         <v>7.0</v>
@@ -25856,7 +25853,7 @@
         <v>1</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>71</v>
@@ -25874,18 +25871,18 @@
         <v>0</v>
       </c>
       <c r="L494" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="M494" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N494" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B495" s="4">
         <v>1.0</v>
@@ -25916,18 +25913,18 @@
         <v>0</v>
       </c>
       <c r="L495" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="M495" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N495" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B496" s="3">
         <v>2.0</v>
@@ -25957,18 +25954,18 @@
         <v>0</v>
       </c>
       <c r="L496" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="M496" s="3" t="s">
         <v>313</v>
       </c>
       <c r="N496" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B497" s="3">
         <v>5.0</v>
@@ -25983,7 +25980,7 @@
         <v>1</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>16</v>
@@ -26001,18 +25998,18 @@
         <v>0</v>
       </c>
       <c r="L497" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="M497" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N497" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B498" s="3">
         <v>3.0</v>
@@ -26042,18 +26039,18 @@
         <v>0</v>
       </c>
       <c r="L498" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M498" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="M498" s="3" t="s">
+      <c r="N498" s="3" t="s">
         <v>1437</v>
-      </c>
-      <c r="N498" s="3" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B499" s="3">
         <v>7.0</v>
@@ -26068,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>123</v>
@@ -26086,18 +26083,18 @@
         <v>0</v>
       </c>
       <c r="L499" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="M499" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N499" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B500" s="3">
         <v>6.0</v>
@@ -26112,7 +26109,7 @@
         <v>1</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G500" s="3" t="s">
         <v>123</v>
@@ -26130,18 +26127,18 @@
         <v>0</v>
       </c>
       <c r="L500" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="M500" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N500" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B501" s="3">
         <v>2.0</v>
@@ -26156,7 +26153,7 @@
         <v>1</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G501" s="3" t="s">
         <v>16</v>
@@ -26174,18 +26171,18 @@
         <v>0</v>
       </c>
       <c r="L501" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="M501" s="3" t="s">
         <v>338</v>
       </c>
       <c r="N501" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B502" s="3">
         <v>4.0</v>
@@ -26215,18 +26212,18 @@
         <v>0</v>
       </c>
       <c r="L502" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="M502" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N502" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B503" s="3">
         <v>2.0</v>
@@ -26241,7 +26238,7 @@
         <v>1</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="G503" s="3" t="s">
         <v>16</v>
@@ -26259,18 +26256,18 @@
         <v>0</v>
       </c>
       <c r="L503" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M503" s="3" t="s">
         <v>172</v>
       </c>
       <c r="N503" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B504" s="3">
         <v>5.0</v>
@@ -26285,7 +26282,7 @@
         <v>1</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G504" s="3" t="s">
         <v>16</v>
@@ -26303,18 +26300,18 @@
         <v>0</v>
       </c>
       <c r="L504" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="M504" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N504" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B505" s="3">
         <v>1.0</v>
@@ -26344,18 +26341,18 @@
         <v>0</v>
       </c>
       <c r="L505" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="M505" s="3" t="s">
         <v>149</v>
       </c>
       <c r="N505" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B506" s="3">
         <v>3.0</v>
@@ -26385,18 +26382,18 @@
         <v>0</v>
       </c>
       <c r="L506" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="M506" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N506" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B507" s="3">
         <v>2.0</v>
@@ -26411,10 +26408,10 @@
         <v>1</v>
       </c>
       <c r="F507" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G507" s="3" t="s">
         <v>1462</v>
-      </c>
-      <c r="G507" s="3" t="s">
-        <v>1463</v>
       </c>
       <c r="H507" s="3" t="b">
         <v>0</v>
@@ -26429,18 +26426,18 @@
         <v>0</v>
       </c>
       <c r="L507" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="M507" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N507" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B508" s="3">
         <v>3.0</v>
@@ -26455,7 +26452,7 @@
         <v>1</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G508" s="3" t="s">
         <v>16</v>
@@ -26473,18 +26470,18 @@
         <v>0</v>
       </c>
       <c r="L508" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M508" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="M508" s="3" t="s">
-        <v>1468</v>
-      </c>
       <c r="N508" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B509" s="3">
         <v>2.0</v>
@@ -26499,7 +26496,7 @@
         <v>1</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G509" s="3" t="s">
         <v>16</v>
@@ -26517,18 +26514,18 @@
         <v>0</v>
       </c>
       <c r="L509" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="M509" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N509" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B510" s="3">
         <v>1.0</v>
@@ -26543,7 +26540,7 @@
         <v>1</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>16</v>
@@ -26561,18 +26558,18 @@
         <v>0</v>
       </c>
       <c r="L510" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="M510" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N510" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B511" s="3">
         <v>3.0</v>
@@ -26602,18 +26599,18 @@
         <v>0</v>
       </c>
       <c r="L511" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="M511" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N511" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B512" s="3">
         <v>0.0</v>
@@ -26643,18 +26640,18 @@
         <v>0</v>
       </c>
       <c r="L512" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="M512" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N512" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B513" s="3">
         <v>2.0</v>
@@ -26684,18 +26681,18 @@
         <v>0</v>
       </c>
       <c r="L513" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="M513" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N513" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B514" s="3">
         <v>4.0</v>
@@ -26710,7 +26707,7 @@
         <v>1</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G514" s="3" t="s">
         <v>16</v>
@@ -26728,18 +26725,18 @@
         <v>0</v>
       </c>
       <c r="L514" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="M514" s="3" t="s">
         <v>257</v>
       </c>
       <c r="N514" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B515" s="3">
         <v>3.0</v>
@@ -26754,7 +26751,7 @@
         <v>1</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G515" s="3" t="s">
         <v>197</v>
@@ -26772,18 +26769,18 @@
         <v>0</v>
       </c>
       <c r="L515" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="M515" s="3" t="s">
         <v>203</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B516" s="3">
         <v>2.0</v>
@@ -26798,7 +26795,7 @@
         <v>1</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>16</v>
@@ -26816,18 +26813,18 @@
         <v>0</v>
       </c>
       <c r="L516" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M516" s="3" t="s">
         <v>1491</v>
       </c>
-      <c r="M516" s="3" t="s">
+      <c r="N516" s="3" t="s">
         <v>1492</v>
-      </c>
-      <c r="N516" s="3" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B517" s="3">
         <v>2.0</v>
@@ -26857,18 +26854,18 @@
         <v>0</v>
       </c>
       <c r="L517" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="M517" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N517" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B518" s="3">
         <v>1.0</v>
@@ -26883,7 +26880,7 @@
         <v>0</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H518" s="3" t="b">
         <v>0</v>
@@ -26898,18 +26895,18 @@
         <v>0</v>
       </c>
       <c r="L518" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="M518" s="3" t="s">
         <v>338</v>
       </c>
       <c r="N518" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B519" s="3">
         <v>2.0</v>
@@ -26939,18 +26936,18 @@
         <v>0</v>
       </c>
       <c r="L519" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="M519" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N519" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B520" s="3">
         <v>2.0</v>
@@ -26965,7 +26962,7 @@
         <v>1</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G520" s="3" t="s">
         <v>16</v>
@@ -26983,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="L520" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="M520" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
   </sheetData>
